--- a/仕様書/自作ECS仕様書.xlsx
+++ b/仕様書/自作ECS仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2年制作\ゲーム\Wire Game\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirit\source\repos\ECS-Entity-Component-System-\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6BBB01-85C7-4C5E-830E-EE52CD7E34F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB03A9-EB83-4529-A84A-A0EF08E5D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_目次" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2_ゲームオブジェクト" sheetId="3" r:id="rId3"/>
     <sheet name="3_コンポーネント" sheetId="4" r:id="rId4"/>
     <sheet name="3-1_移動" sheetId="5" r:id="rId5"/>
+    <sheet name="4_マップ管理" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
   <si>
     <t>リンク一覧</t>
     <rPh sb="3" eb="5">
@@ -503,6 +504,306 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．マップコリジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップタイルの物理判定</t>
+    <rPh sb="7" eb="11">
+      <t>ブツリハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割：</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameObjectがマップにめり込まないように衝突判定と座標補正をする</t>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>ザヒョウホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理：</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトのマップ座標から対象のタイルを特定</t>
+    <rPh sb="10" eb="12">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイルの形状ごとに当たり判定（短形 or 円）</t>
+    <rPh sb="4" eb="6">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突があるかを確認して、あれば衝突しないぎりぎりの位置にする。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面の着地判定</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁ジャンプは実装する予定あるけど時間的に微妙</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ジカンテキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ビミョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．マップデータ管理</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップデータとコリジョンフラグを読み込む</t>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定で使用するマップデータの管理</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップデータをファイルから読み込み</t>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各タイルのコリジョンフラグの設定</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．マップ描画</t>
+    <rPh sb="5" eb="7">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップタイルの描画</t>
+    <rPh sb="7" eb="9">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラクラスから画面に映る位置を計算して、必要な分だけ描画する。</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイヤー管理（背景、マップオブジェクトなど）</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４．マップデータ読み込み</t>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル操作の独立</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルからXML形式でデータを読んで渡す</t>
+    <rPh sb="9" eb="11">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ関連クラス</t>
+    <rPh sb="3" eb="5">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行順イメージ</t>
+    <rPh sb="0" eb="3">
+      <t>ジッコウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１．マップデータ読み込み</t>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２．当たり判定</t>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．描画</t>
+    <rPh sb="2" eb="4">
+      <t>ビョウガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1457,11 +1758,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99DFFA-AAC4-41EC-BAFB-2DDF51112934}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66700ED-FEEC-4F83-AB6E-34377B8B116A}">
+  <dimension ref="B2:T26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:20">
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/仕様書/自作ECS仕様書.xlsx
+++ b/仕様書/自作ECS仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirit\source\repos\ECS-Entity-Component-System-\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\com\source\repos\ECS-Entity-Component-System-\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB03A9-EB83-4529-A84A-A0EF08E5D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B88467-29E7-4A8B-815D-1D680A3D5DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0_目次" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="128">
   <si>
     <t>リンク一覧</t>
     <rPh sb="3" eb="5">
@@ -803,6 +803,341 @@
   <si>
     <t>３．描画</t>
     <rPh sb="2" eb="4">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト間の当たり判定は、Collider管理クラスを作りその場所で当たり判定する</t>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップとオブジェクトとの当たり判定をマップの当たり判定で行う。</t>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回は当たり判定をマップ上と行うから必要だけど、マップが存在していない時は必要がない。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回は完全なECSアーキテクチャではないのでコライダーが追加されたときにシステムが存在していなければ、追加する。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンゼン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思考</t>
+    <rPh sb="0" eb="2">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これを動的にしないとシステムとしてプログラマー側で調整するのが面倒になるし、ライブラリ化するときに不適切になる。</t>
+    <rPh sb="3" eb="5">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>フテキセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でもわざわざ持っている必要もないのも現状で、オブジェクトの一覧のコンテナの参照を受け取って回す手段もある。</t>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個人的には、コライダーを追加するときに自動的に登録するような形にする。</t>
+    <rPh sb="0" eb="3">
+      <t>コジンテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ジドウテキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオブジェクトの一覧を管理しているところから参照を持ってくるのは判定をしないといけないので面倒だし、効率悪い。</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>コウリツワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameObjectの更新</t>
+    <rPh sb="11" eb="13">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップのコリジョンを行う</t>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標系を押し戻す処理よりも移動できるかを判断して、いける限界まで</t>
+    <rPh sb="0" eb="3">
+      <t>ザヒョウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゲンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップコリジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中で座標を変更すればいい</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Colliderを継承しているGameObject追加、マップデータ、マップのサイズ、当たり判定を行うかどうか</t>
+    <rPh sb="9" eb="11">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ管理</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>読み込みメソッド</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイルリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ描画</t>
+    <rPh sb="3" eb="5">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイルリスト、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画メソッドだけ</t>
+    <rPh sb="0" eb="2">
       <t>ビョウガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1769,15 +2104,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66700ED-FEEC-4F83-AB6E-34377B8B116A}">
-  <dimension ref="B2:T26"/>
+  <dimension ref="B2:AI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:35">
       <c r="B2" s="1" t="s">
         <v>97</v>
       </c>
@@ -1800,16 +2135,28 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="V2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35">
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="L4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="2:20">
+      <c r="V4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -1819,16 +2166,28 @@
       <c r="L5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="2:20">
+      <c r="V5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35">
       <c r="C6" t="s">
         <v>78</v>
       </c>
       <c r="L6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="2:20">
+      <c r="V6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35">
       <c r="B7" t="s">
         <v>79</v>
       </c>
@@ -1836,32 +2195,69 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:35">
       <c r="C8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:35">
       <c r="C9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:35">
       <c r="C10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="L10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="AI10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35">
       <c r="C11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="U11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35">
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35">
       <c r="B13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="2:20">
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35">
       <c r="B14" t="s">
         <v>77</v>
       </c>
@@ -1869,38 +2265,86 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:35">
       <c r="C15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="2:20">
+      <c r="L15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="2:35">
       <c r="B16" t="s">
         <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="V16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
       <c r="C17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="L17" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" t="s">
+        <v>123</v>
+      </c>
+      <c r="V17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="L18" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" t="s">
+        <v>124</v>
+      </c>
+      <c r="V18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
       <c r="B19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="V19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
       <c r="B20" t="s">
         <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="L20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="2:22">
       <c r="B21" t="s">
         <v>79</v>
       </c>
@@ -1908,17 +2352,31 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:22">
       <c r="C22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="L22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="L23" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
       <c r="B24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:22">
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -1926,7 +2384,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:22">
       <c r="B26" t="s">
         <v>79</v>
       </c>
@@ -1937,5 +2395,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>